--- a/AnnualCalendar.xlsx
+++ b/AnnualCalendar.xlsx
@@ -206,7 +206,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -217,6 +217,10 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -519,6 +523,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -532,261 +540,356 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="C9" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="C16" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="s">
+      <x:c r="C23" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="s">
+      <x:c r="C30" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
-      <x:c r="A33" s="2" t="s">
+      <x:c r="A33" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
+      <x:c r="C33" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -806,6 +909,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -819,261 +926,356 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="C8" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
+      <x:c r="C15" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="s">
+      <x:c r="C22" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="2" t="s">
+      <x:c r="C29" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
-      <x:c r="A33" s="2" t="s">
+      <x:c r="A33" s="3">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
+      <x:c r="C33" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1093,6 +1295,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -1106,253 +1312,345 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="C12" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
+      <x:c r="C19" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="s">
+      <x:c r="C26" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1372,6 +1670,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -1385,261 +1687,356 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="C3" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="C10" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="s">
+      <x:c r="C17" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="s">
+      <x:c r="C24" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="2" t="s">
+      <x:c r="C31" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
-      <x:c r="A33" s="2" t="s">
+      <x:c r="A33" s="3">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
+      <x:c r="C33" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1659,6 +2056,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -1672,245 +2073,334 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="C6" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+      <x:c r="C13" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="s">
+      <x:c r="C20" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="2" t="s">
+      <x:c r="C27" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1930,6 +2420,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -1943,261 +2437,356 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="B7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="C12" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
+      <x:c r="C19" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="s">
+      <x:c r="C26" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
-      <x:c r="A33" s="2" t="s">
+      <x:c r="A33" s="3">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B33" s="2" t="s">
+      <x:c r="C33" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -2217,6 +2806,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -2230,253 +2823,345 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="C9" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="C16" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="s">
+      <x:c r="C23" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="s">
+      <x:c r="C30" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -2496,6 +3181,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -2509,261 +3198,356 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="C7" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="B13" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="s">
+      <x:c r="C21" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="2" t="s">
+      <x:c r="C28" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
-      <x:c r="A33" s="2" t="s">
+      <x:c r="A33" s="3">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
+      <x:c r="C33" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -2783,6 +3567,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -2796,253 +3584,345 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="C4" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="C11" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="2" t="s">
+      <x:c r="C18" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="B19" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="2" t="s">
+      <x:c r="C25" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="2" t="s">
+      <x:c r="C32" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -3062,6 +3942,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -3075,261 +3959,356 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="C9" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="C16" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="s">
+      <x:c r="C23" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="B24" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="s">
+      <x:c r="C30" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
-      <x:c r="A33" s="2" t="s">
+      <x:c r="A33" s="3">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
+      <x:c r="C33" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -3349,6 +4328,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -3362,261 +4345,356 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="C6" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+      <x:c r="C13" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="s">
+      <x:c r="C20" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="2" t="s">
+      <x:c r="C27" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="B29" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
-      <x:c r="A33" s="2" t="s">
+      <x:c r="A33" s="3">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
+      <x:c r="C33" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -3636,6 +4714,10 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="3.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
@@ -3649,253 +4731,345 @@
       <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="C3" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="3">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="C10" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="3">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="3">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="3">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="3">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="3">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="s">
+      <x:c r="C17" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="A18" s="3">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="A19" s="3">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="A20" s="3">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="A21" s="3">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="2" t="s">
+      <x:c r="A22" s="3">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="A23" s="3">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="2" t="s">
+      <x:c r="A24" s="3">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="s">
+      <x:c r="C24" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="A25" s="3">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
-      <x:c r="A26" s="2" t="s">
+      <x:c r="A26" s="3">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
-      <x:c r="A27" s="2" t="s">
+      <x:c r="A27" s="3">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
-      <x:c r="A28" s="2" t="s">
+      <x:c r="A28" s="3">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="A29" s="2" t="s">
+      <x:c r="A29" s="3">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="A30" s="2" t="s">
+      <x:c r="A30" s="3">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="A31" s="2" t="s">
+      <x:c r="A31" s="3">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="2" t="s">
+      <x:c r="C31" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
-      <x:c r="A32" s="2" t="s">
+      <x:c r="A32" s="3">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="D2:E2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/AnnualCalendar.xlsx
+++ b/AnnualCalendar.xlsx
@@ -179,7 +179,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -197,16 +197,39 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -219,8 +242,16 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -552,7 +583,7 @@
       <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -563,7 +594,7 @@
       <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -574,7 +605,7 @@
       <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -585,7 +616,7 @@
       <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -596,7 +627,7 @@
       <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -607,7 +638,7 @@
       <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -618,7 +649,7 @@
       <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="C9" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -629,7 +660,7 @@
       <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -640,7 +671,7 @@
       <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -651,7 +682,7 @@
       <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -662,7 +693,7 @@
       <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -673,7 +704,7 @@
       <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -684,7 +715,7 @@
       <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -695,7 +726,7 @@
       <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="C16" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -706,7 +737,7 @@
       <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -717,7 +748,7 @@
       <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -728,7 +759,7 @@
       <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -739,7 +770,7 @@
       <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -750,7 +781,7 @@
       <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -761,7 +792,7 @@
       <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -772,7 +803,7 @@
       <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="C23" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -783,7 +814,7 @@
       <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -794,7 +825,7 @@
       <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -805,7 +836,7 @@
       <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -816,7 +847,7 @@
       <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -827,7 +858,7 @@
       <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -838,7 +869,7 @@
       <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -849,7 +880,7 @@
       <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="C30" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -860,7 +891,7 @@
       <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -871,7 +902,7 @@
       <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -882,7 +913,7 @@
       <x:c r="B33" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
+      <x:c r="C33" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -938,7 +969,7 @@
       <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -949,7 +980,7 @@
       <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -960,7 +991,7 @@
       <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -971,7 +1002,7 @@
       <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -982,7 +1013,7 @@
       <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -993,7 +1024,7 @@
       <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="C8" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1004,7 +1035,7 @@
       <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1015,7 +1046,7 @@
       <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1026,7 +1057,7 @@
       <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1037,7 +1068,7 @@
       <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1048,7 +1079,7 @@
       <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1059,7 +1090,7 @@
       <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1070,7 +1101,7 @@
       <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="C15" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1081,7 +1112,7 @@
       <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1092,7 +1123,7 @@
       <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1103,7 +1134,7 @@
       <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1114,7 +1145,7 @@
       <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1125,7 +1156,7 @@
       <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1136,7 +1167,7 @@
       <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1147,7 +1178,7 @@
       <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="C22" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1158,7 +1189,7 @@
       <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1169,7 +1200,7 @@
       <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1180,7 +1211,7 @@
       <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1191,7 +1222,7 @@
       <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1202,7 +1233,7 @@
       <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1213,7 +1244,7 @@
       <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1224,7 +1255,7 @@
       <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="C29" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1235,7 +1266,7 @@
       <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C30" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1246,7 +1277,7 @@
       <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1257,7 +1288,7 @@
       <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1268,7 +1299,7 @@
       <x:c r="B33" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
+      <x:c r="C33" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1324,7 +1355,7 @@
       <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1335,7 +1366,7 @@
       <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1346,7 +1377,7 @@
       <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="C5" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1357,7 +1388,7 @@
       <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1368,7 +1399,7 @@
       <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1379,7 +1410,7 @@
       <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1390,7 +1421,7 @@
       <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1401,7 +1432,7 @@
       <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1412,7 +1443,7 @@
       <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1423,7 +1454,7 @@
       <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="C12" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1434,7 +1465,7 @@
       <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1445,7 +1476,7 @@
       <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1456,7 +1487,7 @@
       <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1467,7 +1498,7 @@
       <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1478,7 +1509,7 @@
       <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1489,7 +1520,7 @@
       <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1500,7 +1531,7 @@
       <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="C19" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1511,7 +1542,7 @@
       <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1522,7 +1553,7 @@
       <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1533,7 +1564,7 @@
       <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1544,7 +1575,7 @@
       <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1555,7 +1586,7 @@
       <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1566,7 +1597,7 @@
       <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1577,7 +1608,7 @@
       <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="C26" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1588,7 +1619,7 @@
       <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1599,7 +1630,7 @@
       <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1610,7 +1641,7 @@
       <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1621,7 +1652,7 @@
       <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C30" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1632,7 +1663,7 @@
       <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1643,7 +1674,7 @@
       <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1699,7 +1730,7 @@
       <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="C3" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1710,7 +1741,7 @@
       <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1721,7 +1752,7 @@
       <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1732,7 +1763,7 @@
       <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1743,7 +1774,7 @@
       <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1754,7 +1785,7 @@
       <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1765,7 +1796,7 @@
       <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1776,7 +1807,7 @@
       <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="C10" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1787,7 +1818,7 @@
       <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1798,7 +1829,7 @@
       <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1809,7 +1840,7 @@
       <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1820,7 +1851,7 @@
       <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1831,7 +1862,7 @@
       <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1842,7 +1873,7 @@
       <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1853,7 +1884,7 @@
       <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="C17" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1864,7 +1895,7 @@
       <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1875,7 +1906,7 @@
       <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1886,7 +1917,7 @@
       <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1897,7 +1928,7 @@
       <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1908,7 +1939,7 @@
       <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1919,7 +1950,7 @@
       <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1930,7 +1961,7 @@
       <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="C24" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1941,7 +1972,7 @@
       <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -1952,7 +1983,7 @@
       <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1963,7 +1994,7 @@
       <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1974,7 +2005,7 @@
       <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -1985,7 +2016,7 @@
       <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -1996,7 +2027,7 @@
       <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C30" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2007,7 +2038,7 @@
       <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="C31" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2018,7 +2049,7 @@
       <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2029,7 +2060,7 @@
       <x:c r="B33" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
+      <x:c r="C33" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2085,7 +2116,7 @@
       <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2096,7 +2127,7 @@
       <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2107,7 +2138,7 @@
       <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2118,7 +2149,7 @@
       <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="C6" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2129,7 +2160,7 @@
       <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2140,7 +2171,7 @@
       <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2151,7 +2182,7 @@
       <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -2162,7 +2193,7 @@
       <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2173,7 +2204,7 @@
       <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2184,7 +2215,7 @@
       <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2195,7 +2226,7 @@
       <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="C13" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2206,7 +2237,7 @@
       <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2217,7 +2248,7 @@
       <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2228,7 +2259,7 @@
       <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -2239,7 +2270,7 @@
       <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2250,7 +2281,7 @@
       <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2261,7 +2292,7 @@
       <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2272,7 +2303,7 @@
       <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="C20" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2283,7 +2314,7 @@
       <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2294,7 +2325,7 @@
       <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2305,7 +2336,7 @@
       <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -2316,7 +2347,7 @@
       <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2327,7 +2358,7 @@
       <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2338,7 +2369,7 @@
       <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2349,7 +2380,7 @@
       <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="C27" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2360,7 +2391,7 @@
       <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2371,7 +2402,7 @@
       <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2382,7 +2413,7 @@
       <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C30" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -2393,7 +2424,7 @@
       <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2449,7 +2480,7 @@
       <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2460,7 +2491,7 @@
       <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2468,10 +2499,10 @@
       <x:c r="A5" s="3">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="C5" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2479,10 +2510,10 @@
       <x:c r="A6" s="3">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="B6" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2490,10 +2521,10 @@
       <x:c r="A7" s="3">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="B7" s="5" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2501,10 +2532,10 @@
       <x:c r="A8" s="3">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="B8" s="5" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -2512,10 +2543,10 @@
       <x:c r="A9" s="3">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="B9" s="5" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2523,10 +2554,10 @@
       <x:c r="A10" s="3">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="B10" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2534,10 +2565,10 @@
       <x:c r="A11" s="3">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="B11" s="5" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2545,10 +2576,10 @@
       <x:c r="A12" s="3">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="B12" s="5" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="C12" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2559,7 +2590,7 @@
       <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2567,10 +2598,10 @@
       <x:c r="A14" s="3">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
+      <x:c r="B14" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2578,10 +2609,10 @@
       <x:c r="A15" s="3">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
+      <x:c r="B15" s="5" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -2589,10 +2620,10 @@
       <x:c r="A16" s="3">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="B16" s="5" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2600,10 +2631,10 @@
       <x:c r="A17" s="3">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="s">
+      <x:c r="B17" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2611,10 +2642,10 @@
       <x:c r="A18" s="3">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B18" s="2" t="s">
+      <x:c r="B18" s="5" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2622,10 +2653,10 @@
       <x:c r="A19" s="3">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
+      <x:c r="B19" s="5" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="C19" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2633,10 +2664,10 @@
       <x:c r="A20" s="3">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="s">
+      <x:c r="B20" s="5" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2644,10 +2675,10 @@
       <x:c r="A21" s="3">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="s">
+      <x:c r="B21" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2655,10 +2686,10 @@
       <x:c r="A22" s="3">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="s">
+      <x:c r="B22" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -2666,10 +2697,10 @@
       <x:c r="A23" s="3">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="s">
+      <x:c r="B23" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2677,10 +2708,10 @@
       <x:c r="A24" s="3">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="s">
+      <x:c r="B24" s="5" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2688,10 +2719,10 @@
       <x:c r="A25" s="3">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B25" s="2" t="s">
+      <x:c r="B25" s="5" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2699,10 +2730,10 @@
       <x:c r="A26" s="3">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="s">
+      <x:c r="B26" s="5" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="C26" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2710,10 +2741,10 @@
       <x:c r="A27" s="3">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B27" s="2" t="s">
+      <x:c r="B27" s="5" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2721,10 +2752,10 @@
       <x:c r="A28" s="3">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B28" s="2" t="s">
+      <x:c r="B28" s="5" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2732,10 +2763,10 @@
       <x:c r="A29" s="3">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B29" s="2" t="s">
+      <x:c r="B29" s="5" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -2743,10 +2774,10 @@
       <x:c r="A30" s="3">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="s">
+      <x:c r="B30" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C30" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2754,10 +2785,10 @@
       <x:c r="A31" s="3">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B31" s="2" t="s">
+      <x:c r="B31" s="5" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2765,10 +2796,10 @@
       <x:c r="A32" s="3">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B32" s="2" t="s">
+      <x:c r="B32" s="5" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2776,10 +2807,10 @@
       <x:c r="A33" s="3">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B33" s="2" t="s">
+      <x:c r="B33" s="5" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="C33" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2832,10 +2863,10 @@
       <x:c r="A3" s="3">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2843,10 +2874,10 @@
       <x:c r="A4" s="3">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B4" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2854,10 +2885,10 @@
       <x:c r="A5" s="3">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -2865,10 +2896,10 @@
       <x:c r="A6" s="3">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="B6" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2876,10 +2907,10 @@
       <x:c r="A7" s="3">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="B7" s="5" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2887,10 +2918,10 @@
       <x:c r="A8" s="3">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="B8" s="5" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2898,10 +2929,10 @@
       <x:c r="A9" s="3">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="B9" s="5" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="C9" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2909,10 +2940,10 @@
       <x:c r="A10" s="3">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="B10" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -2920,10 +2951,10 @@
       <x:c r="A11" s="3">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="B11" s="5" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -2931,10 +2962,10 @@
       <x:c r="A12" s="3">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="B12" s="5" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -2942,10 +2973,10 @@
       <x:c r="A13" s="3">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+      <x:c r="B13" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -2953,10 +2984,10 @@
       <x:c r="A14" s="3">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
+      <x:c r="B14" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -2964,10 +2995,10 @@
       <x:c r="A15" s="3">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
+      <x:c r="B15" s="5" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -2975,10 +3006,10 @@
       <x:c r="A16" s="3">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="B16" s="5" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="C16" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -2986,10 +3017,10 @@
       <x:c r="A17" s="3">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="s">
+      <x:c r="B17" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3000,7 +3031,7 @@
       <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3008,10 +3039,10 @@
       <x:c r="A19" s="3">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
+      <x:c r="B19" s="5" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3019,10 +3050,10 @@
       <x:c r="A20" s="3">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="s">
+      <x:c r="B20" s="5" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3030,10 +3061,10 @@
       <x:c r="A21" s="3">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="s">
+      <x:c r="B21" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3041,10 +3072,10 @@
       <x:c r="A22" s="3">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="s">
+      <x:c r="B22" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3052,10 +3083,10 @@
       <x:c r="A23" s="3">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="s">
+      <x:c r="B23" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="C23" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3063,10 +3094,10 @@
       <x:c r="A24" s="3">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="s">
+      <x:c r="B24" s="5" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3074,10 +3105,10 @@
       <x:c r="A25" s="3">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B25" s="2" t="s">
+      <x:c r="B25" s="5" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3085,10 +3116,10 @@
       <x:c r="A26" s="3">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="s">
+      <x:c r="B26" s="5" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3096,10 +3127,10 @@
       <x:c r="A27" s="3">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B27" s="2" t="s">
+      <x:c r="B27" s="5" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3107,10 +3138,10 @@
       <x:c r="A28" s="3">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B28" s="2" t="s">
+      <x:c r="B28" s="5" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3118,10 +3149,10 @@
       <x:c r="A29" s="3">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B29" s="2" t="s">
+      <x:c r="B29" s="5" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3129,10 +3160,10 @@
       <x:c r="A30" s="3">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="s">
+      <x:c r="B30" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="C30" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3140,10 +3171,10 @@
       <x:c r="A31" s="3">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B31" s="2" t="s">
+      <x:c r="B31" s="5" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3151,10 +3182,10 @@
       <x:c r="A32" s="3">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B32" s="2" t="s">
+      <x:c r="B32" s="5" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3207,10 +3238,10 @@
       <x:c r="A3" s="3">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3218,10 +3249,10 @@
       <x:c r="A4" s="3">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B4" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3229,10 +3260,10 @@
       <x:c r="A5" s="3">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3240,10 +3271,10 @@
       <x:c r="A6" s="3">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="B6" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3251,10 +3282,10 @@
       <x:c r="A7" s="3">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="B7" s="5" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="C7" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3262,10 +3293,10 @@
       <x:c r="A8" s="3">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="B8" s="5" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3273,10 +3304,10 @@
       <x:c r="A9" s="3">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="B9" s="5" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3284,10 +3315,10 @@
       <x:c r="A10" s="3">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="B10" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3295,10 +3326,10 @@
       <x:c r="A11" s="3">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="B11" s="5" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3306,10 +3337,10 @@
       <x:c r="A12" s="3">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="B12" s="5" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3317,10 +3348,10 @@
       <x:c r="A13" s="3">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+      <x:c r="B13" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3328,10 +3359,10 @@
       <x:c r="A14" s="3">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
+      <x:c r="B14" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="C14" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3339,10 +3370,10 @@
       <x:c r="A15" s="3">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
+      <x:c r="B15" s="5" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3350,10 +3381,10 @@
       <x:c r="A16" s="3">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="B16" s="5" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3361,10 +3392,10 @@
       <x:c r="A17" s="3">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="s">
+      <x:c r="B17" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3372,10 +3403,10 @@
       <x:c r="A18" s="3">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B18" s="2" t="s">
+      <x:c r="B18" s="5" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3383,10 +3414,10 @@
       <x:c r="A19" s="3">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
+      <x:c r="B19" s="5" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3394,10 +3425,10 @@
       <x:c r="A20" s="3">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="s">
+      <x:c r="B20" s="5" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3405,10 +3436,10 @@
       <x:c r="A21" s="3">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="s">
+      <x:c r="B21" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="C21" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3416,10 +3447,10 @@
       <x:c r="A22" s="3">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="s">
+      <x:c r="B22" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3430,7 +3461,7 @@
       <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3438,10 +3469,10 @@
       <x:c r="A24" s="3">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="s">
+      <x:c r="B24" s="5" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3449,10 +3480,10 @@
       <x:c r="A25" s="3">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B25" s="2" t="s">
+      <x:c r="B25" s="5" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3460,10 +3491,10 @@
       <x:c r="A26" s="3">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="s">
+      <x:c r="B26" s="5" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3471,10 +3502,10 @@
       <x:c r="A27" s="3">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B27" s="2" t="s">
+      <x:c r="B27" s="5" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3482,10 +3513,10 @@
       <x:c r="A28" s="3">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B28" s="2" t="s">
+      <x:c r="B28" s="5" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="C28" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3493,10 +3524,10 @@
       <x:c r="A29" s="3">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B29" s="2" t="s">
+      <x:c r="B29" s="5" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3504,10 +3535,10 @@
       <x:c r="A30" s="3">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="s">
+      <x:c r="B30" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C30" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3515,10 +3546,10 @@
       <x:c r="A31" s="3">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B31" s="2" t="s">
+      <x:c r="B31" s="5" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3526,10 +3557,10 @@
       <x:c r="A32" s="3">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B32" s="2" t="s">
+      <x:c r="B32" s="5" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3537,10 +3568,10 @@
       <x:c r="A33" s="3">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B33" s="2" t="s">
+      <x:c r="B33" s="5" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
+      <x:c r="C33" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3593,10 +3624,10 @@
       <x:c r="A3" s="3">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3604,10 +3635,10 @@
       <x:c r="A4" s="3">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B4" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="C4" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3615,10 +3646,10 @@
       <x:c r="A5" s="3">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3626,10 +3657,10 @@
       <x:c r="A6" s="3">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="B6" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3637,10 +3668,10 @@
       <x:c r="A7" s="3">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="B7" s="5" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3648,10 +3679,10 @@
       <x:c r="A8" s="3">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="B8" s="5" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3659,10 +3690,10 @@
       <x:c r="A9" s="3">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="B9" s="5" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3670,10 +3701,10 @@
       <x:c r="A10" s="3">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="B10" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3681,10 +3712,10 @@
       <x:c r="A11" s="3">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="B11" s="5" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="C11" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3692,10 +3723,10 @@
       <x:c r="A12" s="3">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="B12" s="5" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3703,10 +3734,10 @@
       <x:c r="A13" s="3">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+      <x:c r="B13" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3714,10 +3745,10 @@
       <x:c r="A14" s="3">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
+      <x:c r="B14" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3725,10 +3756,10 @@
       <x:c r="A15" s="3">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
+      <x:c r="B15" s="5" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3736,10 +3767,10 @@
       <x:c r="A16" s="3">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="B16" s="5" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3747,10 +3778,10 @@
       <x:c r="A17" s="3">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="s">
+      <x:c r="B17" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3758,10 +3789,10 @@
       <x:c r="A18" s="3">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B18" s="2" t="s">
+      <x:c r="B18" s="5" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="C18" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3769,10 +3800,10 @@
       <x:c r="A19" s="3">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
+      <x:c r="B19" s="5" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3780,10 +3811,10 @@
       <x:c r="A20" s="3">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="s">
+      <x:c r="B20" s="5" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3791,10 +3822,10 @@
       <x:c r="A21" s="3">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="s">
+      <x:c r="B21" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3802,10 +3833,10 @@
       <x:c r="A22" s="3">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="s">
+      <x:c r="B22" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3813,10 +3844,10 @@
       <x:c r="A23" s="3">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="s">
+      <x:c r="B23" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3824,10 +3855,10 @@
       <x:c r="A24" s="3">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="s">
+      <x:c r="B24" s="5" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3835,10 +3866,10 @@
       <x:c r="A25" s="3">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B25" s="2" t="s">
+      <x:c r="B25" s="5" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="C25" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3846,10 +3877,10 @@
       <x:c r="A26" s="3">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="s">
+      <x:c r="B26" s="5" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3857,10 +3888,10 @@
       <x:c r="A27" s="3">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B27" s="2" t="s">
+      <x:c r="B27" s="5" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3871,7 +3902,7 @@
       <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -3879,10 +3910,10 @@
       <x:c r="A29" s="3">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B29" s="2" t="s">
+      <x:c r="B29" s="5" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -3890,10 +3921,10 @@
       <x:c r="A30" s="3">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="s">
+      <x:c r="B30" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C30" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -3901,10 +3932,10 @@
       <x:c r="A31" s="3">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B31" s="2" t="s">
+      <x:c r="B31" s="5" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -3912,10 +3943,10 @@
       <x:c r="A32" s="3">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B32" s="2" t="s">
+      <x:c r="B32" s="5" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="C32" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -3968,10 +3999,10 @@
       <x:c r="A3" s="3">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -3979,10 +4010,10 @@
       <x:c r="A4" s="3">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B4" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -3990,10 +4021,10 @@
       <x:c r="A5" s="3">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4001,10 +4032,10 @@
       <x:c r="A6" s="3">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="B6" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4012,10 +4043,10 @@
       <x:c r="A7" s="3">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="B7" s="5" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4023,10 +4054,10 @@
       <x:c r="A8" s="3">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="B8" s="5" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4034,10 +4065,10 @@
       <x:c r="A9" s="3">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="B9" s="5" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="C9" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4045,10 +4076,10 @@
       <x:c r="A10" s="3">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="B10" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4056,10 +4087,10 @@
       <x:c r="A11" s="3">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="B11" s="5" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4067,10 +4098,10 @@
       <x:c r="A12" s="3">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="B12" s="5" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4078,10 +4109,10 @@
       <x:c r="A13" s="3">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+      <x:c r="B13" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4089,10 +4120,10 @@
       <x:c r="A14" s="3">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
+      <x:c r="B14" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4100,10 +4131,10 @@
       <x:c r="A15" s="3">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
+      <x:c r="B15" s="5" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4111,10 +4142,10 @@
       <x:c r="A16" s="3">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="B16" s="5" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="C16" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4122,10 +4153,10 @@
       <x:c r="A17" s="3">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="s">
+      <x:c r="B17" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4133,10 +4164,10 @@
       <x:c r="A18" s="3">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B18" s="2" t="s">
+      <x:c r="B18" s="5" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4144,10 +4175,10 @@
       <x:c r="A19" s="3">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
+      <x:c r="B19" s="5" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4155,10 +4186,10 @@
       <x:c r="A20" s="3">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="s">
+      <x:c r="B20" s="5" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4166,10 +4197,10 @@
       <x:c r="A21" s="3">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="s">
+      <x:c r="B21" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4177,10 +4208,10 @@
       <x:c r="A22" s="3">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="s">
+      <x:c r="B22" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4188,10 +4219,10 @@
       <x:c r="A23" s="3">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="s">
+      <x:c r="B23" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="C23" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4199,10 +4230,10 @@
       <x:c r="A24" s="3">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="s">
+      <x:c r="B24" s="5" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4210,10 +4241,10 @@
       <x:c r="A25" s="3">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B25" s="2" t="s">
+      <x:c r="B25" s="5" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4221,10 +4252,10 @@
       <x:c r="A26" s="3">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="s">
+      <x:c r="B26" s="5" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4232,10 +4263,10 @@
       <x:c r="A27" s="3">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B27" s="2" t="s">
+      <x:c r="B27" s="5" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4243,10 +4274,10 @@
       <x:c r="A28" s="3">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B28" s="2" t="s">
+      <x:c r="B28" s="5" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4254,10 +4285,10 @@
       <x:c r="A29" s="3">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B29" s="2" t="s">
+      <x:c r="B29" s="5" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4265,10 +4296,10 @@
       <x:c r="A30" s="3">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="s">
+      <x:c r="B30" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="C30" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4276,10 +4307,10 @@
       <x:c r="A31" s="3">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B31" s="2" t="s">
+      <x:c r="B31" s="5" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4287,10 +4318,10 @@
       <x:c r="A32" s="3">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B32" s="2" t="s">
+      <x:c r="B32" s="5" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4298,10 +4329,10 @@
       <x:c r="A33" s="3">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B33" s="2" t="s">
+      <x:c r="B33" s="5" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
+      <x:c r="C33" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4354,10 +4385,10 @@
       <x:c r="A3" s="3">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4365,10 +4396,10 @@
       <x:c r="A4" s="3">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B4" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4376,10 +4407,10 @@
       <x:c r="A5" s="3">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4387,10 +4418,10 @@
       <x:c r="A6" s="3">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="B6" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="C6" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4398,10 +4429,10 @@
       <x:c r="A7" s="3">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="B7" s="5" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4409,10 +4440,10 @@
       <x:c r="A8" s="3">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="B8" s="5" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4420,10 +4451,10 @@
       <x:c r="A9" s="3">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="B9" s="5" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4431,10 +4462,10 @@
       <x:c r="A10" s="3">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="B10" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4442,10 +4473,10 @@
       <x:c r="A11" s="3">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="B11" s="5" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4453,10 +4484,10 @@
       <x:c r="A12" s="3">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="B12" s="5" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4464,10 +4495,10 @@
       <x:c r="A13" s="3">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+      <x:c r="B13" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="C13" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4475,10 +4506,10 @@
       <x:c r="A14" s="3">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
+      <x:c r="B14" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4486,10 +4517,10 @@
       <x:c r="A15" s="3">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
+      <x:c r="B15" s="5" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4497,10 +4528,10 @@
       <x:c r="A16" s="3">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="B16" s="5" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4508,10 +4539,10 @@
       <x:c r="A17" s="3">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="s">
+      <x:c r="B17" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4519,10 +4550,10 @@
       <x:c r="A18" s="3">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B18" s="2" t="s">
+      <x:c r="B18" s="5" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4530,10 +4561,10 @@
       <x:c r="A19" s="3">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
+      <x:c r="B19" s="5" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4541,10 +4572,10 @@
       <x:c r="A20" s="3">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="s">
+      <x:c r="B20" s="5" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="C20" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4552,10 +4583,10 @@
       <x:c r="A21" s="3">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="s">
+      <x:c r="B21" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4563,10 +4594,10 @@
       <x:c r="A22" s="3">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="s">
+      <x:c r="B22" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4574,10 +4605,10 @@
       <x:c r="A23" s="3">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="s">
+      <x:c r="B23" s="5" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4585,10 +4616,10 @@
       <x:c r="A24" s="3">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="s">
+      <x:c r="B24" s="5" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4596,10 +4627,10 @@
       <x:c r="A25" s="3">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B25" s="2" t="s">
+      <x:c r="B25" s="5" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4607,10 +4638,10 @@
       <x:c r="A26" s="3">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="s">
+      <x:c r="B26" s="5" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4618,10 +4649,10 @@
       <x:c r="A27" s="3">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B27" s="2" t="s">
+      <x:c r="B27" s="5" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="C27" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4629,10 +4660,10 @@
       <x:c r="A28" s="3">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B28" s="2" t="s">
+      <x:c r="B28" s="5" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4640,10 +4671,10 @@
       <x:c r="A29" s="3">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="2" t="s">
+      <x:c r="B29" s="5" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4651,10 +4682,10 @@
       <x:c r="A30" s="3">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="s">
+      <x:c r="B30" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C30" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4662,10 +4693,10 @@
       <x:c r="A31" s="3">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B31" s="2" t="s">
+      <x:c r="B31" s="5" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4673,10 +4704,10 @@
       <x:c r="A32" s="3">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B32" s="2" t="s">
+      <x:c r="B32" s="5" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4684,10 +4715,10 @@
       <x:c r="A33" s="3">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B33" s="2" t="s">
+      <x:c r="B33" s="5" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
+      <x:c r="C33" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4743,7 +4774,7 @@
       <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="C3" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4754,7 +4785,7 @@
       <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4765,7 +4796,7 @@
       <x:c r="B5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4776,7 +4807,7 @@
       <x:c r="B6" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4787,7 +4818,7 @@
       <x:c r="B7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4798,7 +4829,7 @@
       <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4809,7 +4840,7 @@
       <x:c r="B9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4820,7 +4851,7 @@
       <x:c r="B10" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="C10" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4831,7 +4862,7 @@
       <x:c r="B11" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4842,7 +4873,7 @@
       <x:c r="B12" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4853,7 +4884,7 @@
       <x:c r="B13" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4864,7 +4895,7 @@
       <x:c r="B14" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4875,7 +4906,7 @@
       <x:c r="B15" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4886,7 +4917,7 @@
       <x:c r="B16" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4897,7 +4928,7 @@
       <x:c r="B17" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="C17" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4908,7 +4939,7 @@
       <x:c r="B18" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4919,7 +4950,7 @@
       <x:c r="B19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -4930,7 +4961,7 @@
       <x:c r="B20" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -4941,7 +4972,7 @@
       <x:c r="B21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -4952,7 +4983,7 @@
       <x:c r="B22" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -4963,7 +4994,7 @@
       <x:c r="B23" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -4974,7 +5005,7 @@
       <x:c r="B24" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="C24" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -4985,7 +5016,7 @@
       <x:c r="B25" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -4996,7 +5027,7 @@
       <x:c r="B26" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -5007,7 +5038,7 @@
       <x:c r="B27" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -5018,7 +5049,7 @@
       <x:c r="B28" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -5029,7 +5060,7 @@
       <x:c r="B29" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
@@ -5040,7 +5071,7 @@
       <x:c r="B30" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C30" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -5051,7 +5082,7 @@
       <x:c r="B31" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="C31" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -5062,7 +5093,7 @@
       <x:c r="B32" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
